--- a/산출물/메뉴 구조도/캡디-07-로그아웃 메뉴구조도-V1.0.xlsx
+++ b/산출물/메뉴 구조도/캡디-07-로그아웃 메뉴구조도-V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\315\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E05CBF-CDF0-444D-9A78-D53A584A3788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC3156-41C2-494F-B28E-BC5387D134A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="468" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -222,18 +222,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문가 상담 메뉴 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -330,7 +318,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>... 구축</t>
+    <t>로그아웃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -381,18 +369,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이익훈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.03.21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.04.11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -572,6 +548,14 @@
   </si>
   <si>
     <t>기관 정보를 삭제한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI를 통한 낙상 조치 지원 시스템</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -11772,8 +11756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11807,7 +11791,7 @@
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="33" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -11947,7 +11931,7 @@
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -11995,12 +11979,12 @@
     </row>
     <row r="30" spans="1:12">
       <c r="F30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -12087,10 +12071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+      <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12102,7 +12086,7 @@
     <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1">
       <c r="A1" s="35" t="str">
         <f>문서명</f>
         <v>메뉴구조도</v>
@@ -12115,7 +12099,7 @@
       <c r="G1" s="36"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -12125,7 +12109,7 @@
       <c r="G2" s="39"/>
       <c r="H2" s="40"/>
     </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -12135,22 +12119,22 @@
       <c r="G3" s="42"/>
       <c r="H3" s="43"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="str">
-        <f>프로젝트명</f>
-        <v>... 구축</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="B4" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -12165,7 +12149,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="45" t="s">
         <v>2</v>
       </c>
@@ -12177,7 +12161,7 @@
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -12187,7 +12171,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -12211,7 +12195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1">
+    <row r="12" spans="1:9" ht="23.25" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -12219,7 +12203,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
@@ -12229,35 +12213,25 @@
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="23.25" customHeight="1">
+    <row r="13" spans="1:9" ht="23.25" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -12267,9 +12241,9 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1">
+    <row r="15" spans="1:9" ht="23.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -12279,9 +12253,9 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="23.25" customHeight="1">
+    <row r="16" spans="1:9" ht="23.25" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -12293,7 +12267,7 @@
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -12305,7 +12279,7 @@
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -12452,8 +12426,8 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A8:H9"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B4:I4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12468,8 +12442,8 @@
   </sheetPr>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12526,7 +12500,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -12601,17 +12575,17 @@
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1">
       <c r="A9" s="54" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>12</v>
@@ -12623,21 +12597,21 @@
         <v>27</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1">
       <c r="A10" s="55"/>
       <c r="B10" s="20"/>
       <c r="C10" s="22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -12646,20 +12620,20 @@
         <v>0</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1">
       <c r="A11" s="55"/>
       <c r="B11" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>12</v>
@@ -12671,18 +12645,18 @@
         <v>27</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1">
       <c r="A12" s="55"/>
       <c r="B12" s="20"/>
       <c r="C12" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>12</v>
@@ -12694,18 +12668,18 @@
         <v>27</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1">
       <c r="A13" s="55"/>
       <c r="B13" s="20"/>
       <c r="C13" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>12</v>
@@ -12717,18 +12691,18 @@
         <v>27</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.1" customHeight="1">
       <c r="A14" s="55"/>
       <c r="B14" s="20"/>
       <c r="C14" s="22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>12</v>
@@ -12740,18 +12714,18 @@
         <v>27</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1">
       <c r="A15" s="55"/>
       <c r="B15" s="20"/>
       <c r="C15" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>12</v>
@@ -12763,20 +12737,20 @@
         <v>27</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1">
       <c r="A16" s="55"/>
       <c r="B16" s="20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>12</v>
@@ -12788,18 +12762,18 @@
         <v>27</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1">
       <c r="A17" s="55"/>
       <c r="B17" s="20"/>
       <c r="C17" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>12</v>
@@ -12811,13 +12785,13 @@
         <v>27</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1">
       <c r="A18" s="55"/>
       <c r="B18" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>30</v>
@@ -12859,18 +12833,18 @@
         <v>27</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1" thickBot="1">
       <c r="A20" s="56"/>
       <c r="B20" s="21"/>
       <c r="C20" s="61" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="61" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>12</v>
@@ -12882,7 +12856,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1" thickTop="1">
@@ -12890,16 +12864,16 @@
         <v>32</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>12</v>
@@ -12909,7 +12883,7 @@
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="59" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -12917,10 +12891,10 @@
       <c r="B22" s="20"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>12</v>
@@ -12930,7 +12904,7 @@
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -12938,10 +12912,10 @@
       <c r="B23" s="20"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>12</v>
@@ -12951,7 +12925,7 @@
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -12959,10 +12933,10 @@
       <c r="B24" s="20"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>12</v>
@@ -12972,7 +12946,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -12984,7 +12958,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>35</v>
@@ -12997,7 +12971,7 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -13005,10 +12979,10 @@
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>60</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>12</v>
@@ -13026,10 +13000,10 @@
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>12</v>
@@ -13039,7 +13013,7 @@
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -13047,10 +13021,10 @@
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>12</v>
@@ -13069,11 +13043,11 @@
         <v>36</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>12</v>
@@ -13083,18 +13057,18 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="57"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>12</v>
@@ -13104,18 +13078,18 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="57"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>12</v>
@@ -13125,22 +13099,22 @@
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="57"/>
       <c r="B32" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>12</v>
@@ -13150,7 +13124,7 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -13158,10 +13132,10 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>12</v>
@@ -13171,7 +13145,7 @@
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -13179,10 +13153,10 @@
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>12</v>
@@ -13192,20 +13166,20 @@
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="57"/>
       <c r="B35" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>12</v>
@@ -13215,18 +13189,18 @@
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="57"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>12</v>
@@ -13236,18 +13210,18 @@
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="58"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>12</v>
@@ -13257,7 +13231,7 @@
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" thickTop="1">
